--- a/data/ura-vacant-sites_CNQC.xlsx
+++ b/data/ura-vacant-sites_CNQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B89AFC-0372-4B98-968C-DD9A9E427D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AF6255-5484-4C07-9D7E-C2ED6592FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3315" windowWidth="29040" windowHeight="15720" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNQC Part 2024" sheetId="3" r:id="rId1"/>
@@ -2232,20 +2232,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Media Circle (Parcel A) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- outcome based</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Media Circle </t>
     </r>
     <r>
@@ -2257,6 +2243,9 @@
       </rPr>
       <t>- outcome based</t>
     </r>
+  </si>
+  <si>
+    <t>Media Circle (Parcel A)</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2367,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2442,9 +2431,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2772,7 +2758,7 @@
   <dimension ref="B1:I5360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2810,17 +2796,17 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="19">
         <v>45729</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D2" s="17">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3105,7 +3091,7 @@
         <v>45330</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D16" s="17">
         <v>3</v>
@@ -3662,7 +3648,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="2:9" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19">
         <v>43720</v>
       </c>
@@ -40074,6 +40060,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1">Information on vacant sites sold by URA from 1993 to date - Date of Launch, Date of Tender Closing, Date of Award, Location, Type of Devt Allowed, Lease years, Type of Devt Code, Site Area, GFA,  No. of Bids, Name of Successful Tenderer, Successful Tender Price, $psm per GFA, Planning Area</Description0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100499CA15D4F628D42954F951BC9490AAB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00df4678b833a66450a69437db37f2c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dac46a39e8f1c8b0e69d307c4e65d8a" ns2:_="">
     <xsd:import namespace="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1"/>
@@ -40199,24 +40202,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C96853-E0D3-4C63-A692-0405CB0D646C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1">Information on vacant sites sold by URA from 1993 to date - Date of Launch, Date of Tender Closing, Date of Award, Location, Type of Devt Allowed, Lease years, Type of Devt Code, Site Area, GFA,  No. of Bids, Name of Successful Tenderer, Successful Tender Price, $psm per GFA, Planning Area</Description0>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA9739E-E873-45EB-BE66-9CDA636FE4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6871360-A18F-4212-8EB3-BFC44928ADBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40232,22 +40236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA9739E-E873-45EB-BE66-9CDA636FE4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C96853-E0D3-4C63-A692-0405CB0D646C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c03733a8-5d7e-4bb6-a123-e7b1fd16ced1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>